--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail3 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail3 Features.xlsx
@@ -4540,7 +4540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4551,29 +4551,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4594,115 +4592,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4719,72 +4707,66 @@
         <v>3.410964838876512e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.6656732833136803</v>
+        <v>1.843199317194516e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.530417058987736</v>
+        <v>3.528614754048103e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.843199317194516e-07</v>
+        <v>0.08657882434343574</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.528614754048103e-07</v>
+        <v>0.1798528794752176</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08657882434343574</v>
+        <v>0.03975824400786623</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1798528794752176</v>
+        <v>1.88863308793331</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03975824400786623</v>
+        <v>1.842800063865599</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.907505948650596</v>
+        <v>3.930321566030637</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.842800063865599</v>
+        <v>3.024554783678424e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.930321566030637</v>
+        <v>1190043667.367839</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.024554783678424e-17</v>
+        <v>1.003049723583115e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1190043667.367839</v>
+        <v>42.8338637187852</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.003049723583115e-07</v>
+        <v>0.0002515418297174161</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>42.8338637187852</v>
+        <v>13.64019911466318</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002515418297174161</v>
+        <v>1.055705155536127</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>13.64019911466318</v>
+        <v>0.04680062314915372</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.055705155536127</v>
+        <v>2.397245064926904</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.04680062314915372</v>
+        <v>0.9601858532713393</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.397245064926904</v>
+        <v>1.256355420294117</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9601858532713393</v>
+        <v>163</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.256355420294117</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>163</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.7652578004164823</v>
       </c>
     </row>
@@ -4799,72 +4781,66 @@
         <v>3.081530647710303e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1629784618418657</v>
+        <v>1.503362745229892e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.1045862288636492</v>
+        <v>3.555062148486544e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.503362745229892e-07</v>
+        <v>0.07688464778932498</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.555062148486544e-07</v>
+        <v>0.1498172814129543</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07688464778932498</v>
+        <v>0.02829970100489298</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1498172814129543</v>
+        <v>1.895199937727384</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02829970100489298</v>
+        <v>1.836251673979084</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.925743610324176</v>
+        <v>4.186125549955922</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.836251673979084</v>
+        <v>1.841779268409892e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.186125549955922</v>
+        <v>1914638363.263423</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.841779268409892e-17</v>
+        <v>6.260512721084522e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1914638363.263423</v>
+        <v>67.51668227645447</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.260512721084522e-08</v>
+        <v>0.0002438967952412531</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>67.51668227645447</v>
+        <v>13.86041954751597</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002438967952412531</v>
+        <v>1.060017812282912</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.86041954751597</v>
+        <v>0.04685531333494357</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.060017812282912</v>
+        <v>2.70018796538064</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.04685531333494357</v>
+        <v>0.959690681910648</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.70018796538064</v>
+        <v>1.215182839457116</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.959690681910648</v>
+        <v>183</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.215182839457116</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.348476864752155</v>
       </c>
     </row>
@@ -4879,72 +4855,66 @@
         <v>2.876079118827285e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1591110917313961</v>
+        <v>1.254011040139114e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7213764467518304</v>
+        <v>3.576472689352158e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.254011040139114e-07</v>
+        <v>0.06734832679452771</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.576472689352158e-07</v>
+        <v>0.1240080556962756</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06734832679452771</v>
+        <v>0.01987881245803371</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1240080556962756</v>
+        <v>1.904717420159938</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01987881245803371</v>
+        <v>1.988686587874463</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.9389791738559</v>
+        <v>4.273274734478571</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.988686587874463</v>
+        <v>1.064954329144508e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.273274734478571</v>
+        <v>3412532187.34087</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.064954329144508e-17</v>
+        <v>3.524409013769701e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>3412532187.34087</v>
+        <v>124.0179351078267</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.524409013769701e-08</v>
+        <v>0.0002279509769806691</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>124.0179351078267</v>
+        <v>14.20877440122606</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002279509769806691</v>
+        <v>1.033027005052606</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>14.20877440122606</v>
+        <v>0.04602085633498043</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.033027005052606</v>
+        <v>3.064874648674465</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.04602085633498043</v>
+        <v>0.9590987663335033</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.064874648674465</v>
+        <v>1.079726212486959</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9590987663335033</v>
+        <v>205</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.079726212486959</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>205</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>2.238463487510366</v>
       </c>
     </row>
@@ -4959,72 +4929,66 @@
         <v>2.749000315529455e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3277878488362435</v>
+        <v>1.071834605483101e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.162552928341063</v>
+        <v>3.594155450590082e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.071834605483101e-07</v>
+        <v>0.05884483132035726</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.594155450590082e-07</v>
+        <v>0.1046608894160593</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.05884483132035726</v>
+        <v>0.01439645369497023</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1046608894160593</v>
+        <v>1.907858204758179</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01439645369497023</v>
+        <v>2.134792822564487</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.945466719365458</v>
+        <v>4.660132999777224</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.134792822564487</v>
+        <v>6.377780651977138e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.660132999777224</v>
+        <v>5710801578.013975</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.377780651977138e-18</v>
+        <v>2.104753801322171e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>5710801578.013975</v>
+        <v>208.0001845905349</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.104753801322171e-08</v>
+        <v>0.0002003382604482952</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>208.0001845905349</v>
+        <v>14.14808603904161</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002003382604482952</v>
+        <v>1.005037422888642</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>14.14808603904161</v>
+        <v>0.0401013767455634</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.005037422888642</v>
+        <v>3.43444571071496</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0401013767455634</v>
+        <v>0.9576670368223184</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.43444571071496</v>
+        <v>1.007163976840988</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9576670368223184</v>
+        <v>207</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.007163976840988</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.984146082369926</v>
       </c>
     </row>
@@ -5039,72 +5003,66 @@
         <v>2.669453329086812e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3935675528031911</v>
+        <v>9.394851882596802e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.40167857313325</v>
+        <v>3.609090540415278e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.394851882596802e-08</v>
+        <v>0.0517899316820689</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.609090540415278e-07</v>
+        <v>0.09209821766038005</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.0517899316820689</v>
+        <v>0.01115305337495908</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09209821766038005</v>
+        <v>1.910592774491267</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01115305337495908</v>
+        <v>2.255782591124233</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.943477425464281</v>
+        <v>4.316200704120894</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.255782591124233</v>
+        <v>3.932314261539638e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.316200704120894</v>
+        <v>8902622709.986259</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.932314261539638e-18</v>
+        <v>1.350524421150924e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>8902622709.986259</v>
+        <v>311.6622167993166</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.350524421150924e-08</v>
+        <v>0.0001764896190695607</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>311.6622167993166</v>
+        <v>13.8691624627081</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001764896190695607</v>
+        <v>0.998389669994133</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>13.8691624627081</v>
+        <v>0.03394842548905778</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>0.998389669994133</v>
+        <v>3.772005242975371</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.03394842548905778</v>
+        <v>0.9567409483647706</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.772005242975371</v>
+        <v>0.9309841835355696</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9567409483647706</v>
+        <v>207</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9309841835355696</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>207</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>3.598979422280217</v>
       </c>
     </row>
@@ -5119,72 +5077,66 @@
         <v>2.618070393412586e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.3990180069237204</v>
+        <v>8.431728788109427e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.542320509517761</v>
+        <v>3.621998876211798e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.431728788109427e-08</v>
+        <v>0.04616570094811975</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.621998876211798e-07</v>
+        <v>0.08491524015013689</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04616570094811975</v>
+        <v>0.009335771631349632</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08491524015013689</v>
+        <v>1.916050301793323</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009335771631349632</v>
+        <v>2.544318997639845</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.949814413959861</v>
+        <v>4.538537691187397</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.544318997639845</v>
+        <v>2.655763212783143e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.538537691187397</v>
+        <v>13317500620.13735</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.655763212783143e-18</v>
+        <v>9.00863556981116e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>13317500620.13735</v>
+        <v>471.0150696784385</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.00863556981116e-09</v>
+        <v>0.0001510700993676632</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>471.0150696784385</v>
+        <v>13.53141897632602</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001510700993676632</v>
+        <v>1.025786710290413</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>13.53141897632602</v>
+        <v>0.0276608293715597</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.025786710290413</v>
+        <v>4.32727407493475</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0276608293715597</v>
+        <v>0.9576194704064438</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.32727407493475</v>
+        <v>0.8345960880180227</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9576194704064438</v>
+        <v>213</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.8345960880180227</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>4.646001373355418</v>
       </c>
     </row>
@@ -5199,72 +5151,66 @@
         <v>2.583059030613582e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.371777450266466</v>
+        <v>7.737069853338967e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.633540016113938</v>
+        <v>3.633409085314391e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.737069853338967e-08</v>
+        <v>0.04182853537628859</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.633409085314391e-07</v>
+        <v>0.08149289190989802</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.04182853537628859</v>
+        <v>0.008387565669616241</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08149289190989802</v>
+        <v>1.908991750275407</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.008387565669616241</v>
+        <v>2.527902149179939</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.950824419376097</v>
+        <v>4.925649094746664</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.527902149179939</v>
+        <v>1.750850898177761e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.925649094746664</v>
+        <v>19595039944.90748</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.750850898177761e-18</v>
+        <v>6.119829012850832e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>19595039944.90748</v>
+        <v>672.2664988956401</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.119829012850832e-09</v>
+        <v>0.000116398527619362</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>672.2664988956401</v>
+        <v>13.47845427000612</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000116398527619362</v>
+        <v>1.062908027457619</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>13.47845427000612</v>
+        <v>0.02114597262928655</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.062908027457619</v>
+        <v>5.213709433438027</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02114597262928655</v>
+        <v>0.955990535955219</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.213709433438027</v>
+        <v>0.8454058756624993</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.955990535955219</v>
+        <v>233</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8454058756624993</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>233</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>6.844916477522817</v>
       </c>
     </row>
@@ -5279,72 +5225,66 @@
         <v>2.55718087615455e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.327851886315655</v>
+        <v>7.239103945207063e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.697279942506334</v>
+        <v>3.643715145410168e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.239103945207063e-08</v>
+        <v>0.03854844957870668</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.643715145410168e-07</v>
+        <v>0.08030216971982689</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03854844957870668</v>
+        <v>0.007932811888132659</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08030216971982689</v>
+        <v>1.906595376777472</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.007932811888132659</v>
+        <v>2.673458793339799</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.94926412503687</v>
+        <v>4.795966357773583</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.673458793339799</v>
+        <v>1.109045426011516e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.795966357773583</v>
+        <v>30617571258.42653</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.109045426011516e-18</v>
+        <v>3.911924398666744e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>30617571258.42653</v>
+        <v>1039.658741732723</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.911924398666744e-09</v>
+        <v>7.209446536312063e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1039.658741732723</v>
+        <v>13.48829839330571</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>7.209446536312063e-05</v>
+        <v>1.096390637136909</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>13.48829839330571</v>
+        <v>0.01311644841503091</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.096390637136909</v>
+        <v>6.360895473143629</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01311644841503091</v>
+        <v>0.9559084078568252</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.360895473143629</v>
+        <v>0.7873120527906011</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9559084078568252</v>
+        <v>247</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.7873120527906011</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>247</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>10.49848965104759</v>
       </c>
     </row>
@@ -5359,72 +5299,66 @@
         <v>2.536156732610307e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2756691145605747</v>
+        <v>6.879250861123805e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.743103697792285</v>
+        <v>3.653201097343357e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6.879250861123805e-08</v>
+        <v>0.03607485179560392</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.653201097343357e-07</v>
+        <v>0.08022928770265136</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03607485179560392</v>
+        <v>0.00773732287978975</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08022928770265136</v>
+        <v>1.903880696070696</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00773732287978975</v>
+        <v>2.744528751544456</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.943194781037747</v>
+        <v>5.362788085099766</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.744528751544456</v>
+        <v>6.976312296820227e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.362788085099766</v>
+        <v>47921954128.75711</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.976312296820227e-19</v>
+        <v>2.491514092086494e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>47921954128.75711</v>
+        <v>1602.119667805268</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>2.491514092086494e-09</v>
+        <v>3.716494086656617e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1602.119667805268</v>
+        <v>12.93630298786266</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3.716494086656617e-05</v>
+        <v>1.162966981967373</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>12.93630298786266</v>
+        <v>0.006219476108185959</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.162966981967373</v>
+        <v>7.33708762833907</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.006219476108185959</v>
+        <v>0.957050734695741</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>7.33708762833907</v>
+        <v>0.7829547887442022</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.957050734695741</v>
+        <v>253</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.7829547887442022</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>253</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>13.78422223099206</v>
       </c>
     </row>
@@ -5439,72 +5373,66 @@
         <v>2.517449840238787e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2195099439960677</v>
+        <v>6.618653661907279e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.775414737154743</v>
+        <v>3.662070206913431e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>6.618653661907279e-08</v>
+        <v>0.03421855964648492</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.662070206913431e-07</v>
+        <v>0.08069390765988126</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.03421855964648492</v>
+        <v>0.007682040570878412</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08069390765988126</v>
+        <v>1.904777579776769</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.007682040570878412</v>
+        <v>2.995882201635173</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.942241369765927</v>
+        <v>5.725440262134558</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.995882201635173</v>
+        <v>3.930662931379073e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.725440262134558</v>
+        <v>85086019222.21167</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.930662931379073e-19</v>
+        <v>1.404953409073423e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>85086019222.21167</v>
+        <v>2845.654789997662</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.404953409073423e-09</v>
+        <v>1.928407682058347e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2845.654789997662</v>
+        <v>12.77905822748676</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1.928407682058347e-05</v>
+        <v>1.105049217266494</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.77905822748676</v>
+        <v>0.003149173229069839</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.105049217266494</v>
+        <v>7.872591283982763</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.003149173229069839</v>
+        <v>0.9579174961389164</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>7.872591283982763</v>
+        <v>0.7625768708357457</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9579174961389164</v>
+        <v>261</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7625768708357457</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>261</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>15.61556667992159</v>
       </c>
     </row>
@@ -5519,72 +5447,66 @@
         <v>2.499443608634717e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1615748694138953</v>
+        <v>6.435770219809629e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.796504023406235</v>
+        <v>3.670475929825076e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.435770219809629e-08</v>
+        <v>0.03287831162952397</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.670475929825076e-07</v>
+        <v>0.08142449015466804</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03287831162952397</v>
+        <v>0.007710812677939246</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08142449015466804</v>
+        <v>1.907483366831001</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007710812677939246</v>
+        <v>3.45026053612058</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.944698856564143</v>
+        <v>6.567590562608594</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.45026053612058</v>
+        <v>2.719684206936242e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.567590562608594</v>
+        <v>125601265889.6782</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.719684206936242e-19</v>
+        <v>9.528771951253852e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>125601265889.6782</v>
+        <v>4290.486229151753</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>9.528771951253852e-10</v>
+        <v>1.432732369928295e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>4290.486229151753</v>
+        <v>12.43522452145613</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1.432732369928295e-05</v>
+        <v>1.064097310398507</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.43522452145613</v>
+        <v>0.002215502962273074</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.064097310398507</v>
+        <v>8.088557553828203</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.002215502962273074</v>
+        <v>0.9584793116362572</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.088557553828203</v>
+        <v>0.6844490699640616</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9584793116362572</v>
+        <v>265</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.6844490699640616</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>265</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>16.1670896718547</v>
       </c>
     </row>
@@ -5599,72 +5521,66 @@
         <v>2.480980459328796e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.103021049218463</v>
+        <v>6.311774511671381e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.807720021019588</v>
+        <v>3.678542447987334e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>6.311774511671381e-08</v>
+        <v>0.03195288557107723</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.678542447987334e-07</v>
+        <v>0.08227842902517679</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.03195288557107723</v>
+        <v>0.007790718890824815</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08227842902517679</v>
+        <v>1.90287021644447</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.007790718890824815</v>
+        <v>3.523721888982279</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.939994560090628</v>
+        <v>7.354628996995219</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.523721888982279</v>
+        <v>2.168747942847083e-19</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>7.354628996995219</v>
+        <v>155908865070.5842</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.168747942847083e-19</v>
+        <v>7.666153718626504e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>155908865070.5842</v>
+        <v>5271.70015583302</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.666153718626504e-10</v>
+        <v>1.24936615329835e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>5271.70015583302</v>
+        <v>11.90086201154234</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>1.24936615329835e-05</v>
+        <v>1.146057756880057</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.90086201154234</v>
+        <v>0.001769483737364032</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.146057756880057</v>
+        <v>8.258745949758874</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.001769483737364032</v>
+        <v>0.9580792258008746</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.258745949758874</v>
+        <v>0.6887576342496399</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9580792258008746</v>
+        <v>279</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.6887576342496399</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>16.69172699417719</v>
       </c>
     </row>
@@ -5679,72 +5595,66 @@
         <v>2.461377415035123e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.04434361420797209</v>
+        <v>6.220609807684723e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.809776008677854</v>
+        <v>3.686351523393889e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>6.220609807684723e-08</v>
+        <v>0.03127321034366523</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.686351523393889e-07</v>
+        <v>0.08318798929707706</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.03127321034366523</v>
+        <v>0.007898294169622462</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.08318798929707706</v>
+        <v>1.914050894175285</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007898294169622462</v>
+        <v>3.801771165471243</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.948507712132344</v>
+        <v>8.431383863355943</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.801771165471243</v>
+        <v>1.650185987688876e-19</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.431383863355943</v>
+        <v>208690198832.6261</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.650185987688876e-19</v>
+        <v>5.744140488577494e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>208690198832.6261</v>
+        <v>7186.823855778307</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.744140488577494e-10</v>
+        <v>8.471256987240936e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>7186.823855778307</v>
+        <v>11.21348619983744</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>8.471256987240936e-06</v>
+        <v>1.257690483071717</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.21348619983744</v>
+        <v>0.00106519510665841</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.257690483071717</v>
+        <v>8.523183997212836</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.00106519510665841</v>
+        <v>0.9587433427689032</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.523183997212836</v>
+        <v>0.6647579557538459</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9587433427689032</v>
+        <v>313</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.6647579557538459</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>313</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>18.111446067551</v>
       </c>
     </row>
@@ -5759,72 +5669,66 @@
         <v>2.440273463828228e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.01429533311167552</v>
+        <v>6.152235737782012e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.803017573839178</v>
+        <v>3.693952696204095e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.152235737782012e-08</v>
+        <v>0.0307709873647298</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.693952696204095e-07</v>
+        <v>0.08414866641662551</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.0307709873647298</v>
+        <v>0.0080279160040507</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08414866641662551</v>
+        <v>1.919231920248194</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0080279160040507</v>
+        <v>3.912774611041929</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.950752506807815</v>
+        <v>8.480740122100325</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.912774611041929</v>
+        <v>1.631034356453033e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.480740122100325</v>
+        <v>219572361920.5388</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.631034356453033e-19</v>
+        <v>5.480152635517263e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>219572361920.5388</v>
+        <v>7863.546447075643</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.480152635517263e-10</v>
+        <v>6.324539009923177e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>7863.546447075643</v>
+        <v>8.868082883987613</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>6.324539009923177e-06</v>
+        <v>1.618048118739187</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.868082883987613</v>
+        <v>0.0004973800511919945</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.618048118739187</v>
+        <v>8.703546720449594</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0004973800511919945</v>
+        <v>0.959410718841555</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.703546720449594</v>
+        <v>0.6863260263166311</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.959410718841555</v>
+        <v>307</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.6863260263166311</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>307</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>18.86056943972686</v>
       </c>
     </row>
@@ -5839,72 +5743,66 @@
         <v>2.417399000800042e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.07283924921542793</v>
+        <v>6.101063206198842e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.787607447362828</v>
+        <v>3.701381883459996e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.101063206198842e-08</v>
+        <v>0.03041366593853416</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.701381883459996e-07</v>
+        <v>0.08516582866442009</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03041366593853416</v>
+        <v>0.008178288335491331</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08516582866442009</v>
+        <v>1.9152324117166</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008178288335491331</v>
+        <v>3.832348445462908</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.947928545852585</v>
+        <v>8.931206050717826</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.832348445462908</v>
+        <v>1.470653637732199e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.931206050717826</v>
+        <v>240657167914.5945</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.470653637732199e-19</v>
+        <v>4.98113655578628e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>240657167914.5945</v>
+        <v>8517.418852848856</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.98113655578628e-10</v>
+        <v>4.558610812215216e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8517.418852848856</v>
+        <v>7.842580604251579</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>4.558610812215216e-06</v>
+        <v>1.581873446528611</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.842580604251579</v>
+        <v>0.0002803822381539987</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.581873446528611</v>
+        <v>8.778288498448006</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0002803822381539987</v>
+        <v>0.9590503210189877</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.778288498448006</v>
+        <v>0.6818398622147284</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9590503210189877</v>
+        <v>279</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6818398622147284</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>19.12321660515414</v>
       </c>
     </row>
@@ -5919,72 +5817,66 @@
         <v>2.392583416284261e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1313176913147366</v>
+        <v>6.06037262649695e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.763582529274246</v>
+        <v>3.708666560365362e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.06037262649695e-08</v>
+        <v>0.03016951432768981</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.708666560365362e-07</v>
+        <v>0.08624541121600597</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03016951432768981</v>
+        <v>0.008348556774081198</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08624541121600597</v>
+        <v>1.922100394288633</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008348556774081198</v>
+        <v>4.25913778495806</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.956069569725629</v>
+        <v>8.020943973853926</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.25913778495806</v>
+        <v>1.359711081473014e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.020943973853926</v>
+        <v>256915399122.1871</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.359711081473014e-19</v>
+        <v>4.684691456550331e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>256915399122.1871</v>
+        <v>8974.844011803563</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>4.684691456550331e-10</v>
+        <v>3.987942833791072e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8974.844011803563</v>
+        <v>8.855305340936342</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.987942833791072e-06</v>
+        <v>1.405836799011936</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.855305340936342</v>
+        <v>0.0003127202507625142</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.405836799011936</v>
+        <v>8.772592427268515</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0003127202507625142</v>
+        <v>0.9587187121628016</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.772592427268515</v>
+        <v>0.6911275362932319</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9587187121628016</v>
+        <v>268</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6911275362932319</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>268</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>19.14667959442061</v>
       </c>
     </row>
@@ -5999,72 +5891,66 @@
         <v>2.365746098621825e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1898193357275676</v>
+        <v>6.025832649715868e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.730843968372573</v>
+        <v>3.715825210678256e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>6.025832649715868e-08</v>
+        <v>0.0300072853202785</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.715825210678256e-07</v>
+        <v>0.08740168020997967</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.0300072853202785</v>
+        <v>0.008539580806006791</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08740168020997967</v>
+        <v>1.921996113036812</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.008539580806006791</v>
+        <v>4.70052465976263</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.958335635128552</v>
+        <v>8.051935730482803</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>4.70052465976263</v>
+        <v>1.349264217862846e-19</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.051935730482803</v>
+        <v>258152445935.5106</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.349264217862846e-19</v>
+        <v>4.658974472917542e-10</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>258152445935.5106</v>
+        <v>8991.859071491015</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.658974472917542e-10</v>
+        <v>3.272187322904893e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8991.859071491015</v>
+        <v>8.901832731422209</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>3.272187322904893e-06</v>
+        <v>1.45378208462198</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.901832731422209</v>
+        <v>0.0002592967161596248</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.45378208462198</v>
+        <v>8.82612303214251</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0002592967161596248</v>
+        <v>0.9594933355622236</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.82612303214251</v>
+        <v>0.6549021370413132</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9594933355622236</v>
+        <v>282</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.6549021370413132</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>282</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>19.55972785627152</v>
       </c>
     </row>
@@ -6079,72 +5965,66 @@
         <v>2.336856026962243e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2484601528566052</v>
+        <v>5.99410161200319e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.689158472699877</v>
+        <v>3.722869585786438e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.99410161200319e-08</v>
+        <v>0.02991040162089442</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.722869585786438e-07</v>
+        <v>0.08864390943415676</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.02991040162089442</v>
+        <v>0.00875246809319194</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08864390943415676</v>
+        <v>1.916153782673438</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.00875246809319194</v>
+        <v>4.290653877877444</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.955755137962349</v>
+        <v>8.16134485899685</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>4.290653877877444</v>
+        <v>1.29438487318802e-19</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.16134485899685</v>
+        <v>259734771607.2358</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.29438487318802e-19</v>
+        <v>4.611967772060315e-10</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>259734771607.2358</v>
+        <v>8732.198852028068</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.611967772060315e-10</v>
+        <v>2.379662850260714e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>8732.198852028068</v>
+        <v>7.222261076840478</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>2.379662850260714e-06</v>
+        <v>1.728627022059486</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.222261076840478</v>
+        <v>0.000124125724961552</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.728627022059486</v>
+        <v>8.956064290646029</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.000124125724961552</v>
+        <v>0.9601048017652969</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.956064290646029</v>
+        <v>0.6403051622843158</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9601048017652969</v>
+        <v>272</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.6403051622843158</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>20.32704548122834</v>
       </c>
     </row>
@@ -6159,72 +6039,66 @@
         <v>2.305912244129574e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.3073965638236412</v>
+        <v>5.96654584722207e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.638178029843409</v>
+        <v>3.729811570391072e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.96654584722207e-08</v>
+        <v>0.0299083303583194</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.729811570391072e-07</v>
+        <v>0.08996920107469397</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.0299083303583194</v>
+        <v>0.008989067448911425</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.08996920107469397</v>
+        <v>1.917573987547638</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.008989067448911425</v>
+        <v>3.660797473422718</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.955617268613743</v>
+        <v>8.367902498421534</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.660797473422718</v>
+        <v>1.362238861857634e-19</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.367902498421534</v>
+        <v>253052278033.8405</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.362238861857634e-19</v>
+        <v>4.741260755962217e-10</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>253052278033.8405</v>
+        <v>8723.158590730973</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.741260755962217e-10</v>
+        <v>2.559851548779855e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>8723.158590730973</v>
+        <v>6.99215303731186</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>2.559851548779855e-06</v>
+        <v>2.270403958846519</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>6.99215303731186</v>
+        <v>0.0001251516646783537</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>2.270403958846519</v>
+        <v>9.019203388982408</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.0001251516646783537</v>
+        <v>0.9606544250665969</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>9.019203388982408</v>
+        <v>0.64985882884298</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9606544250665969</v>
+        <v>284</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.64985882884298</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>284</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>20.39026507869614</v>
       </c>
     </row>
@@ -6239,72 +6113,66 @@
         <v>2.272820585748643e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.3667786366844459</v>
+        <v>5.945565354051712e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.577470936949809</v>
+        <v>3.736671814630159e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.945565354051712e-08</v>
+        <v>0.03002730091495906</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.736671814630159e-07</v>
+        <v>0.09138464963409736</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.03002730091495906</v>
+        <v>0.00925290099223753</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.09138464963409736</v>
+        <v>1.916694888275844</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.00925290099223753</v>
+        <v>3.785222498004178</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.955440041686335</v>
+        <v>8.486879261032833</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.785222498004178</v>
+        <v>1.324312385173727e-19</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>8.486879261032833</v>
+        <v>259740691715.0899</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.324312385173727e-19</v>
+        <v>4.618087133682724e-10</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>259740691715.0899</v>
+        <v>8934.503559544246</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.618087133682724e-10</v>
+        <v>3.470687320278113e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>8934.503559544246</v>
+        <v>8.998021317572565</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>3.470687320278113e-06</v>
+        <v>1.729710857642133</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.998021317572565</v>
+        <v>0.0002810020735466956</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.729710857642133</v>
+        <v>8.948459524681713</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0002810020735466956</v>
+        <v>0.9605802921695187</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.948459524681713</v>
+        <v>0.6729731272726737</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9605802921695187</v>
+        <v>284</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.6729731272726737</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>284</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>19.6987386286522</v>
       </c>
     </row>
@@ -6319,72 +6187,66 @@
         <v>2.237493254142063e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.4267686670555711</v>
+        <v>5.926919269975685e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.506442243497677</v>
+        <v>3.743467290120895e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.926919269975685e-08</v>
+        <v>0.03024358419221896</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.743467290120895e-07</v>
+        <v>0.09291022759536159</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03024358419221896</v>
+        <v>0.009547097898031869</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09291022759536159</v>
+        <v>1.916684867892474</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.009547097898031869</v>
+        <v>3.977477006203523</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.956896295335845</v>
+        <v>8.469998347265658</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>3.977477006203523</v>
+        <v>1.329596419453134e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>8.469998347265658</v>
+        <v>257698926111.4789</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.329596419453134e-19</v>
+        <v>4.652766684052637e-10</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>257698926111.4789</v>
+        <v>8829.681829608158</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.652766684052637e-10</v>
+        <v>4.752722074310173e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>8829.681829608158</v>
+        <v>10.25104072781942</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>4.752722074310173e-06</v>
+        <v>1.314315627082828</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.25104072781942</v>
+        <v>0.0004994342670266088</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.314315627082828</v>
+        <v>8.746978898976696</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0004994342670266088</v>
+        <v>0.960670159984603</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.746978898976696</v>
+        <v>0.6612796122998438</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.960670159984603</v>
+        <v>286</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.6612796122998438</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>286</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>18.82134116365154</v>
       </c>
     </row>
@@ -6399,72 +6261,66 @@
         <v>2.19986732680195e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.4875655747113782</v>
+        <v>5.910771399261792e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.42430603910097</v>
+        <v>3.750212913306269e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>5.910771399261792e-08</v>
+        <v>0.0305695905663747</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.750212913306269e-07</v>
+        <v>0.09455817881560834</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.0305695905663747</v>
+        <v>0.009875867214807954</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.09455817881560834</v>
+        <v>1.919932797300005</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.009875867214807954</v>
+        <v>4.217673113269154</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.954710722033993</v>
+        <v>8.332640795523893</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>4.217673113269154</v>
+        <v>1.373792581527563e-19</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>8.332640795523893</v>
+        <v>253178715814.6531</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.373792581527563e-19</v>
+        <v>4.737615956273268e-10</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>253178715814.6531</v>
+        <v>8805.936556997769</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.737615956273268e-10</v>
+        <v>5.640138846823336e-06</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>8805.936556997769</v>
+        <v>10.35540981893414</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>5.640138846823336e-06</v>
+        <v>1.215383503233044</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.35540981893414</v>
+        <v>0.0006048175397733732</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.215383503233044</v>
+        <v>8.575624390368223</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0006048175397733732</v>
+        <v>0.9611067608632874</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>8.575624390368223</v>
+        <v>0.6391587746447773</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9611067608632874</v>
+        <v>269</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.6391587746447773</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>269</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>18.64174247426952</v>
       </c>
     </row>
@@ -6479,72 +6335,66 @@
         <v>2.159823943697273e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.5493393064050451</v>
+        <v>5.901221589857637e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.330090314723086</v>
+        <v>3.756922484411046e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.901221589857637e-08</v>
+        <v>0.03099422674517479</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.756922484411046e-07</v>
+        <v>0.09635445819438859</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.03099422674517479</v>
+        <v>0.01024494680993291</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.09635445819438859</v>
+        <v>1.920033228089785</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01024494680993291</v>
+        <v>3.773588112152142</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.959999957442364</v>
+        <v>8.461214848954475</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.773588112152142</v>
+        <v>1.332358332436468e-19</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>8.461214848954475</v>
+        <v>255399203041.5495</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1.332358332436468e-19</v>
+        <v>4.702624798410311e-10</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>255399203041.5495</v>
+        <v>8690.807245975204</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.702624798410311e-10</v>
+        <v>5.797276509511773e-06</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>8690.807245975204</v>
+        <v>9.329797225735714</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>5.797276509511773e-06</v>
+        <v>1.358628809636844</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.329797225735714</v>
+        <v>0.0005046246078391887</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.358628809636844</v>
+        <v>8.58488621168638</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0005046246078391887</v>
+        <v>0.9612146858495576</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>8.58488621168638</v>
+        <v>0.6840835429924653</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9612146858495576</v>
+        <v>272</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.6840835429924653</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>18.88381389002866</v>
       </c>
     </row>
@@ -6921,7 +6771,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.306010464326764</v>
+        <v>1.33130775156308</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.258307508766834</v>
@@ -7010,7 +6860,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.303461147784175</v>
+        <v>1.321564726969279</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.222569435088153</v>
@@ -7099,7 +6949,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.304019364621309</v>
+        <v>1.329875675642817</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.279702033231543</v>
@@ -7188,7 +7038,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.302885699001686</v>
+        <v>1.327195713933931</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.253343035610389</v>
@@ -7277,7 +7127,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.30942209793862</v>
+        <v>1.33622490703686</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.296092527843364</v>
@@ -7366,7 +7216,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.333197900817769</v>
+        <v>1.359183545034123</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.120682889307641</v>
@@ -7455,7 +7305,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.324240535039589</v>
+        <v>1.345195729672284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.127591191448271</v>
@@ -7544,7 +7394,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.335362049990511</v>
+        <v>1.354958985403629</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.151722459394334</v>
@@ -7633,7 +7483,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.360129054578137</v>
+        <v>1.375614945583541</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.472306053974864</v>
@@ -7722,7 +7572,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.365932681672252</v>
+        <v>1.382143423090168</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.304236410063913</v>
@@ -7811,7 +7661,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.350661136994769</v>
+        <v>1.362609284886014</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.351153415968843</v>
@@ -7900,7 +7750,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.371399014010188</v>
+        <v>1.382142848291053</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.376416706108658</v>
@@ -7989,7 +7839,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.380863310620679</v>
+        <v>1.387579962223082</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.354399306656313</v>
@@ -8078,7 +7928,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.409678817706084</v>
+        <v>1.412242222326977</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.36959115003726</v>
@@ -8167,7 +8017,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.422563608172863</v>
+        <v>1.416642304560966</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.395780676099905</v>
@@ -8256,7 +8106,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.399943074619358</v>
+        <v>1.398729052201718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.335683510603728</v>
@@ -8345,7 +8195,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.416221688063935</v>
+        <v>1.413103450176052</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.029057250612238</v>
@@ -8434,7 +8284,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.434814740521463</v>
+        <v>1.419365218963659</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.209452049012916</v>
@@ -8523,7 +8373,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.449612157268693</v>
+        <v>1.435223006595099</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.260459181769519</v>
@@ -8612,7 +8462,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.470566610370733</v>
+        <v>1.454087989712047</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.24379289137485</v>
@@ -8701,7 +8551,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.450003800377286</v>
+        <v>1.435560765199234</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.219051661055977</v>
@@ -8790,7 +8640,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.468150837649045</v>
+        <v>1.453705989412207</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.222652201373299</v>
@@ -8879,7 +8729,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.473203022636996</v>
+        <v>1.457825206678737</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.244855066917399</v>
@@ -8968,7 +8818,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.471824404625332</v>
+        <v>1.460037950760869</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.241584545942195</v>
@@ -9057,7 +8907,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.443980187203672</v>
+        <v>1.432916892247599</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.163900108476119</v>
@@ -9146,7 +8996,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.436402432762376</v>
+        <v>1.431834667527881</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.226773448507708</v>
@@ -9235,7 +9085,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.431537033582544</v>
+        <v>1.428399976445693</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.30249396902723</v>
@@ -9324,7 +9174,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.436299714290756</v>
+        <v>1.430694969989698</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.249130537731776</v>
@@ -9413,7 +9263,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.39285616737647</v>
+        <v>1.392821397114696</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.194015724432279</v>
@@ -9502,7 +9352,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.372287036071263</v>
+        <v>1.376303292022205</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.271149310382725</v>
@@ -9591,7 +9441,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.297589019378302</v>
+        <v>1.294285521505137</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.760018746850987</v>
@@ -9680,7 +9530,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.287641240315138</v>
+        <v>1.287407396916232</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.772723570887585</v>
@@ -9769,7 +9619,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.265840518171606</v>
+        <v>1.266238732768651</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.800559830269965</v>
@@ -9858,7 +9708,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.259144941348281</v>
+        <v>1.25722844372242</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.800091605517395</v>
@@ -9947,7 +9797,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.264110119748676</v>
+        <v>1.259695324885895</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.752705040269904</v>
@@ -10036,7 +9886,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.259072633640825</v>
+        <v>1.257779954406835</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.767656240732321</v>
@@ -10125,7 +9975,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.270208939937562</v>
+        <v>1.27102514976955</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.779120782882952</v>
@@ -10214,7 +10064,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.268720660922913</v>
+        <v>1.269724004930808</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.794059642665689</v>
@@ -10303,7 +10153,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.266569483101402</v>
+        <v>1.267357237339841</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.779841374131124</v>
@@ -10392,7 +10242,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.275964774810966</v>
+        <v>1.27430183621659</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.740853389291095</v>
@@ -10481,7 +10331,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.280622843577608</v>
+        <v>1.277330465581397</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.777556297968795</v>
@@ -10570,7 +10420,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.283242674602614</v>
+        <v>1.278600635451595</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.792047386518466</v>
@@ -10659,7 +10509,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.26737269951979</v>
+        <v>1.256983032322465</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.737541011304097</v>
@@ -10748,7 +10598,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.27874672747056</v>
+        <v>1.271070025025921</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.750749942956813</v>
@@ -10837,7 +10687,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.282182853607622</v>
+        <v>1.274007375262246</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.783342344480111</v>
@@ -10926,7 +10776,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.340401675330834</v>
+        <v>1.337780937849374</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.049372792412943</v>
@@ -11015,7 +10865,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.388343992425746</v>
+        <v>1.386157549117157</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.344743299115432</v>
@@ -11104,7 +10954,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.404758830349198</v>
+        <v>1.407600704063564</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.148348095512179</v>
@@ -11193,7 +11043,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.431178331291072</v>
+        <v>1.427695583130021</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.175230642394647</v>
@@ -11282,7 +11132,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.424645333591388</v>
+        <v>1.419791189112585</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.184757302666543</v>
@@ -11371,7 +11221,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.442474643798592</v>
+        <v>1.433424297736921</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.225232738190849</v>
@@ -11460,7 +11310,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.444850581925571</v>
+        <v>1.430579747510752</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.159044375317042</v>
@@ -11549,7 +11399,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.449399997765605</v>
+        <v>1.438506880316088</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.16244798328195</v>
@@ -11638,7 +11488,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.451291574139729</v>
+        <v>1.439554520007457</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.130548842840104</v>
@@ -11727,7 +11577,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.458658415461078</v>
+        <v>1.444463190460084</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.144397445111697</v>
@@ -11816,7 +11666,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.460959895329854</v>
+        <v>1.45096817609165</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.131545102897833</v>
@@ -11905,7 +11755,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.458866893089444</v>
+        <v>1.448128587729455</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.051626699788208</v>
@@ -11994,7 +11844,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.51204723052726</v>
+        <v>1.500515887773315</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.187478306969474</v>
@@ -12083,7 +11933,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.512650652484504</v>
+        <v>1.500914255151401</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.419399477031361</v>
@@ -12172,7 +12022,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.572355815303973</v>
+        <v>1.549900422450936</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.596367387801818</v>
@@ -12261,7 +12111,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.627854182439997</v>
+        <v>1.596021456888117</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.474490760666004</v>
@@ -12350,7 +12200,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.630073749264477</v>
+        <v>1.592850850223175</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.460500123088491</v>
@@ -12439,7 +12289,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.596659147160383</v>
+        <v>1.561608998525837</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.399464034973114</v>
@@ -12528,7 +12378,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.532252398155575</v>
+        <v>1.514605893245022</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.410459571992975</v>
@@ -12617,7 +12467,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.539753000747789</v>
+        <v>1.523353683907313</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.422529661141952</v>
@@ -12706,7 +12556,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.548266473628818</v>
+        <v>1.530232340832205</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.548602100135097</v>
@@ -12795,7 +12645,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.501850683794094</v>
+        <v>1.486734385465852</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.504881980819838</v>
@@ -12884,7 +12734,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.496242471094432</v>
+        <v>1.48051921385675</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.512041318741288</v>
@@ -13170,7 +13020,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.516278216737436</v>
+        <v>1.493091747813396</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.910204584094115</v>
@@ -13259,7 +13109,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.507403270356898</v>
+        <v>1.484015422792482</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.898096893216418</v>
@@ -13348,7 +13198,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.433449809932336</v>
+        <v>1.434435292562615</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.881727362721053</v>
@@ -13437,7 +13287,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.43556114641512</v>
+        <v>1.438116009238538</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.870909915430892</v>
@@ -13526,7 +13376,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.448613315385437</v>
+        <v>1.447017288126079</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.880264041479871</v>
@@ -13615,7 +13465,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.455315810535009</v>
+        <v>1.454234812010445</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.885462215848222</v>
@@ -13704,7 +13554,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.450941444837107</v>
+        <v>1.452966398446086</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.855875761712772</v>
@@ -13793,7 +13643,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.455336732517476</v>
+        <v>1.455498500315514</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.868766616461113</v>
@@ -13882,7 +13732,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.469526889135254</v>
+        <v>1.467251348963075</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.855409368949871</v>
@@ -13971,7 +13821,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.457074180292858</v>
+        <v>1.453540883895204</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.859246235267447</v>
@@ -14060,7 +13910,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.4511388338929</v>
+        <v>1.450393144830193</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.842214379625056</v>
@@ -14149,7 +13999,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.452045611526965</v>
+        <v>1.452400677504603</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.855418408039853</v>
@@ -14238,7 +14088,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.442867020788556</v>
+        <v>1.449365182950533</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.851240845517669</v>
@@ -14327,7 +14177,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.424553915246433</v>
+        <v>1.428199204480441</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.825866309290914</v>
@@ -14416,7 +14266,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.410867076213151</v>
+        <v>1.416931765274144</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.806058161958053</v>
@@ -14505,7 +14355,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.402816058985816</v>
+        <v>1.409564468581968</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.847719767019854</v>
@@ -14594,7 +14444,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.409239662928018</v>
+        <v>1.415550994849434</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.84147662982111</v>
@@ -14683,7 +14533,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.491960469968051</v>
+        <v>1.463226488536652</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.1561406654582</v>
@@ -14772,7 +14622,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.478110523424786</v>
+        <v>1.454868697758691</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.395248901128187</v>
@@ -14861,7 +14711,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.491036893094705</v>
+        <v>1.467450965129784</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.47637143931407</v>
@@ -14950,7 +14800,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.476447538555464</v>
+        <v>1.459571410336498</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.574969861661419</v>
@@ -15039,7 +14889,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.470754347779108</v>
+        <v>1.460825093766568</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.603884495729133</v>
@@ -15128,7 +14978,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.440795239250497</v>
+        <v>1.436040583305877</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.475213485804644</v>
@@ -15217,7 +15067,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.400451472582602</v>
+        <v>1.400894504668076</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.367177363946364</v>
@@ -15306,7 +15156,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.408930989721173</v>
+        <v>1.412220822012293</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.386497977015249</v>
@@ -15395,7 +15245,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.404348673282147</v>
+        <v>1.412906841685084</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.25787612888439</v>
@@ -15484,7 +15334,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.393020576020149</v>
+        <v>1.403933978345392</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.469941465329238</v>
@@ -15573,7 +15423,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.388324211366992</v>
+        <v>1.401084386474341</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.504707785405405</v>
@@ -15662,7 +15512,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.379917108260124</v>
+        <v>1.391307782841166</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.517971386953845</v>
@@ -15751,7 +15601,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.38287878800247</v>
+        <v>1.391034314828915</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.334959030379948</v>
@@ -15840,7 +15690,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.363011791811729</v>
+        <v>1.369233460812732</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.602641228836183</v>
@@ -15929,7 +15779,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.35510322570786</v>
+        <v>1.354463310576624</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.566349017281141</v>
@@ -16018,7 +15868,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.349535723824506</v>
+        <v>1.350832004930983</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.336399972938129</v>
@@ -16107,7 +15957,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.331339642860119</v>
+        <v>1.3358637098035</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.520304859933619</v>
@@ -16196,7 +16046,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.330910187758992</v>
+        <v>1.3337988598334</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.254716718729639</v>
@@ -16285,7 +16135,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.327535414104335</v>
+        <v>1.329215166634591</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.522201271329629</v>
@@ -16374,7 +16224,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.337180379690859</v>
+        <v>1.33700604031949</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.441555547729796</v>
@@ -16463,7 +16313,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.365321597828523</v>
+        <v>1.358790496323826</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.306034606712746</v>
@@ -16552,7 +16402,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.393516185532141</v>
+        <v>1.383782264620278</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.44408548554934</v>
@@ -16641,7 +16491,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.395222117587815</v>
+        <v>1.384948732139763</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.291521068819248</v>
@@ -16730,7 +16580,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.400902393789973</v>
+        <v>1.388780361283664</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.313260230428862</v>
@@ -16819,7 +16669,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.409497332366268</v>
+        <v>1.386700700689128</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.468845943876584</v>
@@ -16908,7 +16758,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.379886491312491</v>
+        <v>1.357544987722458</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.110479049147316</v>
@@ -16997,7 +16847,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.390303947704377</v>
+        <v>1.369141100254726</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.121201720002306</v>
@@ -17086,7 +16936,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.400147993755279</v>
+        <v>1.377656008499186</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.094902632077129</v>
@@ -17175,7 +17025,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.418144477250239</v>
+        <v>1.395819933124092</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.059290607668734</v>
@@ -17264,7 +17114,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.434255877537525</v>
+        <v>1.414976933760016</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.048197824644463</v>
@@ -17353,7 +17203,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.465894882805398</v>
+        <v>1.443184387812199</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.112178282420668</v>
@@ -17442,7 +17292,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.457570061604952</v>
+        <v>1.430516615735726</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.060522904270992</v>
@@ -17531,7 +17381,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.452728276687314</v>
+        <v>1.426402747683918</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.088157339847269</v>
@@ -17620,7 +17470,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.444725024497677</v>
+        <v>1.412966461308742</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.039811295895388</v>
@@ -17709,7 +17559,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.420978290540563</v>
+        <v>1.395227342371163</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.023492486777427</v>
@@ -17798,7 +17648,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.406156084787522</v>
+        <v>1.379319877913973</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.027158781050368</v>
@@ -17887,7 +17737,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.387941753475665</v>
+        <v>1.366762332191847</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.009314958206505</v>
@@ -17976,7 +17826,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.379117322328073</v>
+        <v>1.354558526377127</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.038825489175151</v>
@@ -18065,7 +17915,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.370943716899008</v>
+        <v>1.344611294690948</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.988200996390266</v>
@@ -18154,7 +18004,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.364716719990083</v>
+        <v>1.342094232185725</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.008620329682149</v>
@@ -18243,7 +18093,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.387614800283558</v>
+        <v>1.355299537560323</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.550181975034728</v>
@@ -18332,7 +18182,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.362932999590043</v>
+        <v>1.330530786536954</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.674502789528042</v>
@@ -18421,7 +18271,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.355529057001574</v>
+        <v>1.324177289387855</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.517081227424517</v>
@@ -18510,7 +18360,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.341195445070208</v>
+        <v>1.307121795907866</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.589291093219698</v>
@@ -18599,7 +18449,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.31619768769705</v>
+        <v>1.287160001823161</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.70309359424886</v>
@@ -18688,7 +18538,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.313060626860144</v>
+        <v>1.281790777788376</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.277345572155293</v>
@@ -18777,7 +18627,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.288677452190896</v>
+        <v>1.265022758009135</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.289164942217654</v>
@@ -18866,7 +18716,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.28543527862866</v>
+        <v>1.262270689010579</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.246320538409757</v>
@@ -18955,7 +18805,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.288922662782806</v>
+        <v>1.266656631067062</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.353527189152831</v>
@@ -19044,7 +18894,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.29359590455223</v>
+        <v>1.271392657334355</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.265683316491851</v>
@@ -19133,7 +18983,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.288418456478773</v>
+        <v>1.263694712574812</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.219822872878795</v>
@@ -19419,7 +19269,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.462205153526063</v>
+        <v>1.479328030004591</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.654851804620871</v>
@@ -19508,7 +19358,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.457360353606058</v>
+        <v>1.475783098366171</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.516590520076522</v>
@@ -19597,7 +19447,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.471738744047773</v>
+        <v>1.499502587535186</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.163319474848018</v>
@@ -19686,7 +19536,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.480858440780847</v>
+        <v>1.510443612732746</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.233253458606147</v>
@@ -19775,7 +19625,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49216094618779</v>
+        <v>1.522285848715249</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.295814514665937</v>
@@ -19864,7 +19714,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.508385470628287</v>
+        <v>1.536814345927953</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.263297430697092</v>
@@ -19953,7 +19803,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.505799117207959</v>
+        <v>1.533719670934593</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.288567992612003</v>
@@ -20042,7 +19892,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.498965086542048</v>
+        <v>1.527294194445499</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.270950912709548</v>
@@ -20131,7 +19981,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.512193909792763</v>
+        <v>1.529356414648073</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.315459540588202</v>
@@ -20220,7 +20070,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.519299815234949</v>
+        <v>1.536991727441935</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.215796922772094</v>
@@ -20309,7 +20159,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.512729993641893</v>
+        <v>1.530481331606582</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.234203863516735</v>
@@ -20398,7 +20248,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.508467553042264</v>
+        <v>1.525908094358585</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.289972900965808</v>
@@ -20487,7 +20337,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.507845627963187</v>
+        <v>1.524440079989404</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.263316973524318</v>
@@ -20576,7 +20426,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.503058111465834</v>
+        <v>1.519131658117379</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.141564757479881</v>
@@ -20665,7 +20515,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.505573677938737</v>
+        <v>1.516074060068162</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.168252719587738</v>
@@ -20754,7 +20604,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.505254085189672</v>
+        <v>1.518925694709741</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.237907788754161</v>
@@ -20843,7 +20693,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.51883504815411</v>
+        <v>1.527866938762475</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.163373730363506</v>
@@ -20932,7 +20782,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.523822878337846</v>
+        <v>1.516451580014222</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.784623652752261</v>
@@ -21021,7 +20871,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.519369091513432</v>
+        <v>1.513539969992233</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.806675001247029</v>
@@ -21110,7 +20960,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.517736781311702</v>
+        <v>1.511904262594139</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.110259747550972</v>
@@ -21199,7 +21049,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.514628045577221</v>
+        <v>1.508256571912898</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.964489165525151</v>
@@ -21288,7 +21138,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.503898075048551</v>
+        <v>1.499607451500797</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.655017801588447</v>
@@ -21377,7 +21227,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.503376548664705</v>
+        <v>1.49693571121709</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.352601628333229</v>
@@ -21466,7 +21316,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.498546552820624</v>
+        <v>1.493958812528463</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.110575441808687</v>
@@ -21555,7 +21405,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.483990466286193</v>
+        <v>1.482433021645556</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.743888768489701</v>
@@ -21644,7 +21494,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.498265624509701</v>
+        <v>1.498324502124119</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.199803279390581</v>
@@ -21733,7 +21583,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.499479783631934</v>
+        <v>1.498823298503822</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.259660354878732</v>
@@ -21822,7 +21672,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.490731160508472</v>
+        <v>1.487927850183383</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.935990346911435</v>
@@ -21911,7 +21761,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.485980912991594</v>
+        <v>1.481326501361787</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.881379672850836</v>
@@ -22000,7 +21850,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.49751409249336</v>
+        <v>1.49293052178052</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.677712656419845</v>
@@ -22089,7 +21939,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.512392112556053</v>
+        <v>1.507459075755265</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.063459559958061</v>
@@ -22178,7 +22028,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.507978063570291</v>
+        <v>1.505848240593176</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.055022203662582</v>
@@ -22267,7 +22117,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.502981988016531</v>
+        <v>1.502524978502507</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.125542762527262</v>
@@ -22356,7 +22206,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.501056398283849</v>
+        <v>1.49973441434138</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.029640622561705</v>
@@ -22445,7 +22295,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.507028467461391</v>
+        <v>1.505015215575538</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.016135861224138</v>
@@ -22534,7 +22384,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.510688009881838</v>
+        <v>1.511729249375612</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.981742267778049</v>
@@ -22623,7 +22473,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.517639832126715</v>
+        <v>1.513748934962731</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.100312891264058</v>
@@ -22712,7 +22562,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.516630344933527</v>
+        <v>1.510744667238755</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.019842374492917</v>
@@ -22801,7 +22651,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.533234258416644</v>
+        <v>1.529737052730808</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.125430635885962</v>
@@ -22890,7 +22740,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.53189111247134</v>
+        <v>1.527617080157778</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.085163239451721</v>
@@ -22979,7 +22829,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.522253710502937</v>
+        <v>1.516989446910692</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.065492114391502</v>
@@ -23068,7 +22918,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.526558973967494</v>
+        <v>1.517186006719112</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.149205758565947</v>
@@ -23157,7 +23007,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.531562731561083</v>
+        <v>1.520692566399247</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.014308072615505</v>
@@ -23246,7 +23096,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.540478440237892</v>
+        <v>1.528790678478717</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.060322900259862</v>
@@ -23335,7 +23185,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.53674691502506</v>
+        <v>1.525752894929427</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.064111390385493</v>
@@ -23424,7 +23274,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.528689133291562</v>
+        <v>1.51377899356606</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.22313312456637</v>
@@ -23513,7 +23363,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.537460438550201</v>
+        <v>1.518730727042662</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.941200380197566</v>
@@ -23602,7 +23452,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.544306613866234</v>
+        <v>1.521162658253645</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.190071008644149</v>
@@ -23691,7 +23541,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.538814048285374</v>
+        <v>1.515500948601509</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.18725165370854</v>
@@ -23780,7 +23630,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.543426613169553</v>
+        <v>1.517157686957494</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.230559195022233</v>
@@ -23869,7 +23719,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.550724819543397</v>
+        <v>1.519651220850067</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.265224918021341</v>
@@ -23958,7 +23808,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.549579531654978</v>
+        <v>1.518299976352931</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.14743866561383</v>
@@ -24047,7 +23897,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.552413280232327</v>
+        <v>1.519859734444642</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.073699859767156</v>
@@ -24136,7 +23986,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.54868197451183</v>
+        <v>1.512613657065057</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.255738672248495</v>
@@ -24225,7 +24075,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.555627322602769</v>
+        <v>1.513023588075213</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.008358958069825</v>
@@ -24314,7 +24164,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.565324891986543</v>
+        <v>1.518357377010164</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.366176904229047</v>
@@ -24403,7 +24253,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.559949992397262</v>
+        <v>1.51518985662352</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.068370442278653</v>
@@ -24492,7 +24342,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.567782289774174</v>
+        <v>1.522461340083963</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.01681020222059</v>
@@ -24581,7 +24431,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.567793381654723</v>
+        <v>1.517523814131758</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.288603177705224</v>
@@ -24670,7 +24520,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.558287063901162</v>
+        <v>1.511578369970132</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.22697194695909</v>
@@ -24759,7 +24609,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.56356613288787</v>
+        <v>1.521404889045394</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.930030987971184</v>
@@ -24848,7 +24698,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.572390567771127</v>
+        <v>1.528570949024314</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.289712567463414</v>
@@ -24937,7 +24787,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.570483813159999</v>
+        <v>1.532108377147427</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.748013906107382</v>
@@ -25026,7 +24876,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.572140390254799</v>
+        <v>1.532966317910721</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.248042746752484</v>
@@ -25115,7 +24965,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.564620034980834</v>
+        <v>1.523772114687187</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.127034614666317</v>
@@ -25204,7 +25054,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.555002995420687</v>
+        <v>1.517239890339403</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.113076696150216</v>
@@ -25293,7 +25143,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.550335447627983</v>
+        <v>1.514721070933014</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.852942854702362</v>
@@ -25382,7 +25232,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.560159068314809</v>
+        <v>1.521452624244218</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.152691642061043</v>
@@ -25668,7 +25518,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.61770452516903</v>
+        <v>1.619857828864791</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.039113512690515</v>
@@ -25757,7 +25607,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.616775392637548</v>
+        <v>1.625294732779887</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.886060198892103</v>
@@ -25846,7 +25696,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.637251270333467</v>
+        <v>1.650361115512892</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.465304419733672</v>
@@ -25935,7 +25785,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.625250735501116</v>
+        <v>1.640440811580498</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.411165188111175</v>
@@ -26024,7 +25874,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.619298813422903</v>
+        <v>1.629924274156362</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.438268919741343</v>
@@ -26113,7 +25963,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.630922178190207</v>
+        <v>1.63878311973724</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.477584460853508</v>
@@ -26202,7 +26052,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.627757018515612</v>
+        <v>1.635685407425679</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.402047095917185</v>
@@ -26291,7 +26141,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.631642070633005</v>
+        <v>1.636914932047134</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.433684124288159</v>
@@ -26380,7 +26230,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.646928383091887</v>
+        <v>1.640444539451431</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.360876818776265</v>
@@ -26469,7 +26319,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.640423681073597</v>
+        <v>1.631579655010208</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.503725520510503</v>
@@ -26558,7 +26408,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.63115483897604</v>
+        <v>1.623063481225132</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.468417570685711</v>
@@ -26647,7 +26497,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.630258625355683</v>
+        <v>1.619604771052869</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.504938029419523</v>
@@ -26736,7 +26586,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.634931464575598</v>
+        <v>1.62346766838785</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.453044648069509</v>
@@ -26825,7 +26675,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.632849161982601</v>
+        <v>1.619560256286486</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.438600569825314</v>
@@ -26914,7 +26764,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.627066746335917</v>
+        <v>1.614682984841632</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.480955338632201</v>
@@ -27003,7 +26853,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.631322706439343</v>
+        <v>1.616943675553922</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.474120466804342</v>
@@ -27092,7 +26942,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.63260580853335</v>
+        <v>1.614559406548202</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.297997484605324</v>
@@ -27181,7 +27031,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.609519963022253</v>
+        <v>1.572120734324776</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.042436017541151</v>
@@ -27270,7 +27120,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.619723159425099</v>
+        <v>1.578169596791394</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.965430416008328</v>
@@ -27359,7 +27209,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.627225652215842</v>
+        <v>1.588191401183532</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.179381746318996</v>
@@ -27448,7 +27298,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.621163552963316</v>
+        <v>1.585910475983545</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.518944822023068</v>
@@ -27537,7 +27387,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.633397700151445</v>
+        <v>1.594371927008488</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.113605182756015</v>
@@ -27626,7 +27476,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.63691911184537</v>
+        <v>1.597572940462633</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.256639163262369</v>
@@ -27715,7 +27565,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.645440266518242</v>
+        <v>1.60935661839473</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.001771655930408</v>
@@ -27804,7 +27654,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.655311965068678</v>
+        <v>1.627576294254089</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.516820712618951</v>
@@ -27893,7 +27743,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.65876875884595</v>
+        <v>1.634380587311043</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.220088821302388</v>
@@ -27982,7 +27832,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.661897407785991</v>
+        <v>1.636111657654818</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.47462488678456</v>
@@ -28071,7 +27921,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.625525335158917</v>
+        <v>1.610331929158968</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.098182186397846</v>
@@ -28160,7 +28010,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.614415159993379</v>
+        <v>1.605083854016983</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.128068152802964</v>
@@ -28249,7 +28099,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.614338647709846</v>
+        <v>1.606712936725251</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.087069026937159</v>
@@ -28338,7 +28188,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.601987167563084</v>
+        <v>1.590084816019469</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.675693987561625</v>
@@ -28427,7 +28277,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.59858370683048</v>
+        <v>1.588120264865195</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.691132206942996</v>
@@ -28516,7 +28366,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.596502185853994</v>
+        <v>1.59082244782727</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.710566285166381</v>
@@ -28605,7 +28455,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.602395499044507</v>
+        <v>1.59770606988653</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.476208780619316</v>
@@ -28694,7 +28544,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606320726294912</v>
+        <v>1.601646022646559</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.66809455354983</v>
@@ -28783,7 +28633,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.609740074522537</v>
+        <v>1.59936935817145</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.805332757559147</v>
@@ -28872,7 +28722,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.611162228255366</v>
+        <v>1.601906987482419</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.768029150410142</v>
@@ -28961,7 +28811,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608651107392508</v>
+        <v>1.597666305493915</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.509650104795887</v>
@@ -29050,7 +28900,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.612107058411711</v>
+        <v>1.595510802592907</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.583557086385475</v>
@@ -29139,7 +28989,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.593425463576737</v>
+        <v>1.576169583007246</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.854406287951368</v>
@@ -29228,7 +29078,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.591415586648262</v>
+        <v>1.570727886152713</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.741058020064465</v>
@@ -29317,7 +29167,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.597019299625698</v>
+        <v>1.572911131568675</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.719487517598412</v>
@@ -29406,7 +29256,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.626449771130095</v>
+        <v>1.591820932852605</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.533817977732194</v>
@@ -29495,7 +29345,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.622450991468439</v>
+        <v>1.588008460358972</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.536955367625804</v>
@@ -29584,7 +29434,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.61983365920536</v>
+        <v>1.582144115382841</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.699396397008842</v>
@@ -29673,7 +29523,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.6370691594795</v>
+        <v>1.598231515997919</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.530973938991297</v>
@@ -29762,7 +29612,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.635888132316447</v>
+        <v>1.598102762944603</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.351144968001632</v>
@@ -29851,7 +29701,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.644231014256514</v>
+        <v>1.600189305815668</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.277988195746248</v>
@@ -29940,7 +29790,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.631885428157532</v>
+        <v>1.582435754751014</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.400424439032748</v>
@@ -30029,7 +29879,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.625327079575867</v>
+        <v>1.582821425389366</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.053524850347384</v>
@@ -30118,7 +29968,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.623337043287892</v>
+        <v>1.574850168660888</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.346938197595386</v>
@@ -30207,7 +30057,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.615309727767168</v>
+        <v>1.564775418471727</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.610747765955451</v>
@@ -30296,7 +30146,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.617950274638988</v>
+        <v>1.563295979882684</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.240164025914212</v>
@@ -30385,7 +30235,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.621173751104217</v>
+        <v>1.561834943305084</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.722236306892109</v>
@@ -30474,7 +30324,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.636819818547881</v>
+        <v>1.570066133229931</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.330616939201405</v>
@@ -30563,7 +30413,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.632778640182327</v>
+        <v>1.569699847246189</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.585815874945252</v>
@@ -30652,7 +30502,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.630820638916071</v>
+        <v>1.566795144109779</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.597767501275679</v>
@@ -30741,7 +30591,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.634200745368352</v>
+        <v>1.571809873267521</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.463136470692354</v>
@@ -30830,7 +30680,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.642243417302428</v>
+        <v>1.574857988019979</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.767007385998633</v>
@@ -30919,7 +30769,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.653361614800319</v>
+        <v>1.586225702491619</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.351675784688945</v>
@@ -31008,7 +30858,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.651863144950624</v>
+        <v>1.586553086656841</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.398344677887054</v>
@@ -31097,7 +30947,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.649781668498111</v>
+        <v>1.581941087513043</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.741842993189442</v>
@@ -31186,7 +31036,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.657951484646536</v>
+        <v>1.588309226165878</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.489299406737324</v>
@@ -31275,7 +31125,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.662057896355656</v>
+        <v>1.589917222147479</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.363881312523934</v>
@@ -31364,7 +31214,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.675404724451109</v>
+        <v>1.596727713684905</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.983739861046315</v>
@@ -31453,7 +31303,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.670268198794929</v>
+        <v>1.599525648487661</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.04357334923966</v>
@@ -31542,7 +31392,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.664826350973439</v>
+        <v>1.59664356936546</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.497219559363491</v>
@@ -31631,7 +31481,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.658352121549847</v>
+        <v>1.595707936776254</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.173514048743447</v>
@@ -31917,7 +31767,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.356488898234298</v>
+        <v>1.372661166564197</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.95397730900047</v>
@@ -32006,7 +31856,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.302297297605918</v>
+        <v>1.315408971870585</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.763760320112882</v>
@@ -32095,7 +31945,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.320384657148431</v>
+        <v>1.335445617244325</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.817080705949741</v>
@@ -32184,7 +32034,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.315186150754639</v>
+        <v>1.327781757267963</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.829364986773122</v>
@@ -32273,7 +32123,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.314413865078397</v>
+        <v>1.329585047989266</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.82744881952342</v>
@@ -32362,7 +32212,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.312584939625987</v>
+        <v>1.32507261287511</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.858127395025516</v>
@@ -32451,7 +32301,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.304768289061109</v>
+        <v>1.314499084762191</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.814252690944125</v>
@@ -32540,7 +32390,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.296852589895108</v>
+        <v>1.307539711077666</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.846252550547894</v>
@@ -32629,7 +32479,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.320083681052517</v>
+        <v>1.330945109945671</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.833160424986291</v>
@@ -32718,7 +32568,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.310906616774765</v>
+        <v>1.319773498072736</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.801282863322277</v>
@@ -32807,7 +32657,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.294823497605684</v>
+        <v>1.305142543790999</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.819781928253889</v>
@@ -32896,7 +32746,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.292353945976463</v>
+        <v>1.30301475531025</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.819042562952451</v>
@@ -32985,7 +32835,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.297261052150573</v>
+        <v>1.308238458118505</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.822553025522593</v>
@@ -33074,7 +32924,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.291431859795656</v>
+        <v>1.298481327151624</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.8163848836517</v>
@@ -33163,7 +33013,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.288567994765915</v>
+        <v>1.295710566330176</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.772784707497312</v>
@@ -33252,7 +33102,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.29763976426408</v>
+        <v>1.301718693483306</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.729200380031011</v>
@@ -33341,7 +33191,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.328453465291938</v>
+        <v>1.33735135040977</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.299150296715236</v>
@@ -33430,7 +33280,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.294072784793561</v>
+        <v>1.3055217874977</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.531936687611851</v>
@@ -33519,7 +33369,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.294852663520505</v>
+        <v>1.305376931246801</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.409273174707474</v>
@@ -33608,7 +33458,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.296434361908473</v>
+        <v>1.308658415765044</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.496755049236105</v>
@@ -33697,7 +33547,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.312243342790483</v>
+        <v>1.327973716853871</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.487599311775368</v>
@@ -33786,7 +33636,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.320737448670836</v>
+        <v>1.340439793855053</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.485997398567128</v>
@@ -33875,7 +33725,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.335165533435688</v>
+        <v>1.354695274683984</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.421485740479846</v>
@@ -33964,7 +33814,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.350620677801482</v>
+        <v>1.366301224048968</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.153017143332414</v>
@@ -34053,7 +33903,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.369482415083058</v>
+        <v>1.390867660086799</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.232865822722968</v>
@@ -34142,7 +33992,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.384705151622158</v>
+        <v>1.406385523809293</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.677824065336673</v>
@@ -34231,7 +34081,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.388183392525741</v>
+        <v>1.409126155656547</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.647982794027143</v>
@@ -34320,7 +34170,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.375340054050973</v>
+        <v>1.391486250426407</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.604760838548482</v>
@@ -34409,7 +34259,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.352705147981212</v>
+        <v>1.373227593482167</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.327555157115491</v>
@@ -34498,7 +34348,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.340609252923309</v>
+        <v>1.360109127279822</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.237658999090452</v>
@@ -34587,7 +34437,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.329206913620096</v>
+        <v>1.34875611696726</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.257589037070197</v>
@@ -34676,7 +34526,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.322876298586844</v>
+        <v>1.346064298418464</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.292602273013408</v>
@@ -34765,7 +34615,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.318991142577614</v>
+        <v>1.341682735451304</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.312004156913371</v>
@@ -34854,7 +34704,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.313094935343101</v>
+        <v>1.338184531684943</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.38393692138442</v>
@@ -34943,7 +34793,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.31458458763956</v>
+        <v>1.337542647640317</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.446206607391875</v>
@@ -35032,7 +34882,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.31838966954428</v>
+        <v>1.338417003380452</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.405579464711481</v>
@@ -35121,7 +34971,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.320563223606658</v>
+        <v>1.341868030135131</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.298877152022151</v>
@@ -35210,7 +35060,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.323567687216673</v>
+        <v>1.344232261559549</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.369020183624763</v>
@@ -35299,7 +35149,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.322618553701532</v>
+        <v>1.34079748599253</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.277072717579489</v>
@@ -35388,7 +35238,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.323684359852017</v>
+        <v>1.338041293365883</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.33433916684842</v>
@@ -35477,7 +35327,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.322774282530055</v>
+        <v>1.336780096337586</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.234506317883695</v>
@@ -35566,7 +35416,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.325195411488807</v>
+        <v>1.336340472957291</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.27263327162265</v>
@@ -35655,7 +35505,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.334252324983221</v>
+        <v>1.349774238225848</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.144787362312988</v>
@@ -35744,7 +35594,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.337735768981708</v>
+        <v>1.35047579734652</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.355591247624584</v>
@@ -35833,7 +35683,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.345434222262137</v>
+        <v>1.361603818976858</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.437222683503824</v>
@@ -35922,7 +35772,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.3657861106048</v>
+        <v>1.379722293526005</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.289125616908978</v>
@@ -36011,7 +35861,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.363427866693874</v>
+        <v>1.370005769239353</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.268770288891195</v>
@@ -36100,7 +35950,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.374578069564127</v>
+        <v>1.377374866197924</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.577525266730532</v>
@@ -36189,7 +36039,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.374737073306735</v>
+        <v>1.378845347264423</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.575808306706834</v>
@@ -36278,7 +36128,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.37773397831667</v>
+        <v>1.382144198082244</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.562900236010397</v>
@@ -36367,7 +36217,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.376791205590854</v>
+        <v>1.382059809511027</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.34115638141876</v>
@@ -36456,7 +36306,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.376089181620879</v>
+        <v>1.380075890650567</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.57005269328678</v>
@@ -36545,7 +36395,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.366901456283304</v>
+        <v>1.373503541407875</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.680557108925857</v>
@@ -36634,7 +36484,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.363264152668307</v>
+        <v>1.373478691991734</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.704143084764423</v>
@@ -36723,7 +36573,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.370942708548903</v>
+        <v>1.377970338810731</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.505253206772045</v>
@@ -36812,7 +36662,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.354509106335722</v>
+        <v>1.364121439039231</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.556034680663702</v>
@@ -36901,7 +36751,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.340808626458297</v>
+        <v>1.353006458156845</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.645325497500282</v>
@@ -36990,7 +36840,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.34218412717876</v>
+        <v>1.353558899486816</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.655505997376518</v>
@@ -37079,7 +36929,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.351991018050389</v>
+        <v>1.366713758752244</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.483056713950384</v>
@@ -37168,7 +37018,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.361448627531954</v>
+        <v>1.375539819995668</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.509197332395637</v>
@@ -37257,7 +37107,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.375335680344362</v>
+        <v>1.38952123326957</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.403766811234936</v>
@@ -37346,7 +37196,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.384320573809537</v>
+        <v>1.401966738094385</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.291022573065842</v>
@@ -37435,7 +37285,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.388798270104998</v>
+        <v>1.412552643177039</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.6667095138072</v>
@@ -37524,7 +37374,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.401241788670738</v>
+        <v>1.424646991431952</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.654423919603243</v>
@@ -37613,7 +37463,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.406361010054867</v>
+        <v>1.429065124008337</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.536474341984645</v>
@@ -37702,7 +37552,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.421205055249122</v>
+        <v>1.444540676054611</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.678631985335556</v>
@@ -37791,7 +37641,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.430165666439005</v>
+        <v>1.452688143965143</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.707632673649372</v>
@@ -37880,7 +37730,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.442709428299271</v>
+        <v>1.462761507126478</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.667968594085163</v>
@@ -38166,7 +38016,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.398194811484387</v>
+        <v>1.422295336769268</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.508494648561086</v>
@@ -38255,7 +38105,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.403344084828686</v>
+        <v>1.42795751653668</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.47008449672005</v>
@@ -38344,7 +38194,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.43257714739398</v>
+        <v>1.46473408163975</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.555293633745449</v>
@@ -38433,7 +38283,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.427650880850313</v>
+        <v>1.461409689601803</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.591401006058338</v>
@@ -38522,7 +38372,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.435524887032268</v>
+        <v>1.47119404120435</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.578821887768728</v>
@@ -38611,7 +38461,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.443192035181489</v>
+        <v>1.478211855237838</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.476230113595646</v>
@@ -38700,7 +38550,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.453892427485066</v>
+        <v>1.489724582521834</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.302018414743694</v>
@@ -38789,7 +38639,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.460511543237808</v>
+        <v>1.496567117345972</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.489202129585888</v>
@@ -38878,7 +38728,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.477200770818558</v>
+        <v>1.509491758503864</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.289406701734926</v>
@@ -38967,7 +38817,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.495425742881647</v>
+        <v>1.5259035658502</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.504380922613424</v>
@@ -39056,7 +38906,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.483758928970985</v>
+        <v>1.50999961654016</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.404276779368325</v>
@@ -39145,7 +38995,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.492557564938897</v>
+        <v>1.5177979900158</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.486959739524846</v>
@@ -39234,7 +39084,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.489554713606686</v>
+        <v>1.514939464358846</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.349146208263393</v>
@@ -39323,7 +39173,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.515370013572896</v>
+        <v>1.534882052885269</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.299449735084468</v>
@@ -39412,7 +39262,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.530554260244495</v>
+        <v>1.546226115262233</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.448730358655591</v>
@@ -39501,7 +39351,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.516737498285861</v>
+        <v>1.535333443212165</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.345036562306849</v>
@@ -39590,7 +39440,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.501849250861517</v>
+        <v>1.520943700689226</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.359012297411445</v>
@@ -39679,7 +39529,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.488886059568458</v>
+        <v>1.493294987506522</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.665092048605477</v>
@@ -39768,7 +39618,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.506959208636944</v>
+        <v>1.509277499871153</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.771757820687256</v>
@@ -39857,7 +39707,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.525966530318044</v>
+        <v>1.526391173578623</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.716612546509855</v>
@@ -39946,7 +39796,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.50631292821653</v>
+        <v>1.506594555143396</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.846032351058198</v>
@@ -40035,7 +39885,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.485410020093917</v>
+        <v>1.48152727748512</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.745125927741328</v>
@@ -40124,7 +39974,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.495760490512744</v>
+        <v>1.492342010686704</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.818613302617512</v>
@@ -40213,7 +40063,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.450205590893773</v>
+        <v>1.456462107453562</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.200088176510472</v>
@@ -40302,7 +40152,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.405904717834112</v>
+        <v>1.414043280823133</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.226567176061271</v>
@@ -40391,7 +40241,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.412983053032813</v>
+        <v>1.422015485571303</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.312143707646102</v>
@@ -40480,7 +40330,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.372639552603716</v>
+        <v>1.382424898370914</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.941049448289059</v>
@@ -40569,7 +40419,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.271099327239217</v>
+        <v>1.284867874094657</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.723482356786252</v>
@@ -40658,7 +40508,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.262749271508913</v>
+        <v>1.276157024779472</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.724696480127772</v>
@@ -40747,7 +40597,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.257858762222757</v>
+        <v>1.272263246882204</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.747271817305762</v>
@@ -40836,7 +40686,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.247557856155129</v>
+        <v>1.261130747987288</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.714664892862469</v>
@@ -40925,7 +40775,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.247478715793691</v>
+        <v>1.258235405054499</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.745688851514723</v>
@@ -41014,7 +40864,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.23809620475912</v>
+        <v>1.248560084569778</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.752153479004771</v>
@@ -41103,7 +40953,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.233327784104191</v>
+        <v>1.243239563686597</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.747528798727374</v>
@@ -41192,7 +41042,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.230761696558227</v>
+        <v>1.237016736668341</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.735104027319143</v>
@@ -41281,7 +41131,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.235737869865356</v>
+        <v>1.240991902938944</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.733130210740328</v>
@@ -41370,7 +41220,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.238971478863995</v>
+        <v>1.246115623514261</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.752172526130938</v>
@@ -41459,7 +41309,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.240220236396755</v>
+        <v>1.246394708191643</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.755080035826702</v>
@@ -41548,7 +41398,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.257816626031204</v>
+        <v>1.261203123917843</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.779398442421637</v>
@@ -41637,7 +41487,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.267649911477549</v>
+        <v>1.274319229811524</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.71487263109105</v>
@@ -41726,7 +41576,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.269115747448069</v>
+        <v>1.275035564475469</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.760987303647825</v>
@@ -41815,7 +41665,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.298728243089119</v>
+        <v>1.300063611969909</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.619987915157439</v>
@@ -41904,7 +41754,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.386326505198374</v>
+        <v>1.379513031943419</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.069565260030683</v>
@@ -41993,7 +41843,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.408387943013725</v>
+        <v>1.406668622049915</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.352135171952829</v>
@@ -42082,7 +41932,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.405884457033692</v>
+        <v>1.403104814848519</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.485462203656625</v>
@@ -42171,7 +42021,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.428704359773247</v>
+        <v>1.42377843759806</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.365163901413342</v>
@@ -42260,7 +42110,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.459986263337894</v>
+        <v>1.454388996804141</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.659418096993524</v>
@@ -42349,7 +42199,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.463267734717688</v>
+        <v>1.454839303531816</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.422514695214306</v>
@@ -42438,7 +42288,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.472363641070182</v>
+        <v>1.460084543700116</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.537715163046971</v>
@@ -42527,7 +42377,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.469928660440029</v>
+        <v>1.462799332412247</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.44102453831473</v>
@@ -42616,7 +42466,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.476236873176748</v>
+        <v>1.463186498043753</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.563505460749053</v>
@@ -42705,7 +42555,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.453053802742406</v>
+        <v>1.446213282835785</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.569206094083396</v>
@@ -42794,7 +42644,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.450527743090546</v>
+        <v>1.443153485893498</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.661381774660919</v>
@@ -42883,7 +42733,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.454957490667879</v>
+        <v>1.447598305312918</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.441995664760126</v>
@@ -42972,7 +42822,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.481268331427243</v>
+        <v>1.470865321368822</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.598161766691446</v>
@@ -43061,7 +42911,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.482050489165502</v>
+        <v>1.471719809127703</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.513182034039702</v>
@@ -43150,7 +43000,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.482721110709376</v>
+        <v>1.473274014744423</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.508767934216395</v>
@@ -43239,7 +43089,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.52049254860326</v>
+        <v>1.508122376382558</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.362901966091364</v>
@@ -43328,7 +43178,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.506904909608647</v>
+        <v>1.492587241820402</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.428782196952502</v>
@@ -43417,7 +43267,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.529193863892474</v>
+        <v>1.516102712972514</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.578444126549248</v>
@@ -43506,7 +43356,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.542881735029277</v>
+        <v>1.53081907104623</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.467255636127467</v>
@@ -43595,7 +43445,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.537263506768299</v>
+        <v>1.522611537692662</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.499749921963359</v>
@@ -43684,7 +43534,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.531862212832989</v>
+        <v>1.520809761519056</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.460028336339577</v>
@@ -43773,7 +43623,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.51802557564276</v>
+        <v>1.510004385116433</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.490009223602926</v>
@@ -43862,7 +43712,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.522418529501919</v>
+        <v>1.512504531980158</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.535856859725466</v>
@@ -43951,7 +43801,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.542261348504726</v>
+        <v>1.534297423326666</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.536922234375491</v>
@@ -44040,7 +43890,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.551618125371898</v>
+        <v>1.538173305045362</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.032323717480228</v>
@@ -44129,7 +43979,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.551256651388258</v>
+        <v>1.531856787897195</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.026345643490076</v>
